--- a/documents/QuyenMangHinh.xlsx
+++ b/documents/QuyenMangHinh.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LV\qlt\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4A7B5-9027-496A-9AE7-4CA563D1C4E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TaiKhoan" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Quyen" sheetId="3" r:id="rId1"/>
+    <sheet name="TaiKhoan" sheetId="1" r:id="rId2"/>
+    <sheet name="ChiNhanh" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Quyền</t>
   </si>
@@ -48,20 +54,35 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>HienThiUser</t>
-  </si>
-  <si>
     <t>ADMIN</t>
   </si>
   <si>
     <t>full</t>
+  </si>
+  <si>
+    <t>Chi Nhánh</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>LEADER</t>
+  </si>
+  <si>
+    <t>YEPPLOYEE</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +136,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -220,35 +253,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -258,6 +302,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -304,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +388,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +440,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,14 +633,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -562,37 +734,37 @@
     <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -600,39 +772,39 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -644,39 +816,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/QuyenMangHinh.xlsx
+++ b/documents/QuyenMangHinh.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LV\qlt\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4A7B5-9027-496A-9AE7-4CA563D1C4E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D59B20-132A-4856-9152-21F3D1464A3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quyen" sheetId="3" r:id="rId1"/>
     <sheet name="TaiKhoan" sheetId="1" r:id="rId2"/>
     <sheet name="ChiNhanh" sheetId="2" r:id="rId3"/>
+    <sheet name="plain" sheetId="4" r:id="rId4"/>
+    <sheet name="menu" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Quyền</t>
   </si>
@@ -76,6 +78,132 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>02/21</t>
+  </si>
+  <si>
+    <t>02/22</t>
+  </si>
+  <si>
+    <t>chi nhanh</t>
+  </si>
+  <si>
+    <t>nhan vien</t>
+  </si>
+  <si>
+    <t>don vi, quy dinh don vi</t>
+  </si>
+  <si>
+    <t>cua hang</t>
+  </si>
+  <si>
+    <t>bo khoa chinh ben hoa don chi tiet</t>
+  </si>
+  <si>
+    <t>Cua hang nhieu chi nhanh</t>
+  </si>
+  <si>
+    <t>lam phan them quyen cho nhan vien</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>quyen = chuc nang</t>
+  </si>
+  <si>
+    <t>loai sp, san pham</t>
+  </si>
+  <si>
+    <t>sp don vi</t>
+  </si>
+  <si>
+    <t>hoa don nhap, chi tiet hoa don nhap</t>
+  </si>
+  <si>
+    <t>hoa don xuat, chi tiet hoa don xuat</t>
+  </si>
+  <si>
+    <t>lich su gia</t>
+  </si>
+  <si>
+    <t>02/23</t>
+  </si>
+  <si>
+    <t>02/24</t>
+  </si>
+  <si>
+    <t>02/25</t>
+  </si>
+  <si>
+    <t>02/26</t>
+  </si>
+  <si>
+    <t>02/27</t>
+  </si>
+  <si>
+    <t>02/28</t>
+  </si>
+  <si>
+    <t>03/01</t>
+  </si>
+  <si>
+    <t>03/02</t>
+  </si>
+  <si>
+    <t>03/03</t>
+  </si>
+  <si>
+    <t>03/04</t>
+  </si>
+  <si>
+    <t>03/05</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Date Done</t>
+  </si>
+  <si>
+    <t>NhanSu</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>KhachHang</t>
+  </si>
+  <si>
+    <t>SanPham</t>
+  </si>
+  <si>
+    <t>Thong Tin SP</t>
+  </si>
+  <si>
+    <t>Nhap Sp</t>
+  </si>
+  <si>
+    <t>Xuat Sp</t>
+  </si>
+  <si>
+    <t>ThietLap</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Trang ca nhan</t>
   </si>
 </sst>
 </file>
@@ -112,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +276,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -240,6 +380,26 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -253,17 +413,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,17 +452,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -636,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -649,67 +827,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,32 +913,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -777,34 +955,34 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -829,4 +1007,322 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BC2152-09F4-4F1F-AFB0-1887E4A2925C}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="K4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="K7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="2"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="2"/>
+      <c r="K10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="K11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="2"/>
+      <c r="K13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="2"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C12:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA98DD5-6C90-4020-9CC1-225599E07434}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="F2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/QuyenMangHinh.xlsx
+++ b/documents/QuyenMangHinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LV\qlt\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D59B20-132A-4856-9152-21F3D1464A3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE709E3-BB51-4127-BE6A-A2DCDC82B052}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quyen" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="ChiNhanh" sheetId="2" r:id="rId3"/>
     <sheet name="plain" sheetId="4" r:id="rId4"/>
     <sheet name="menu" sheetId="5" r:id="rId5"/>
+    <sheet name="bug" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Quyền</t>
   </si>
@@ -204,6 +205,27 @@
   </si>
   <si>
     <t>Trang ca nhan</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Quan tri</t>
+  </si>
+  <si>
+    <t>Cua hang</t>
+  </si>
+  <si>
+    <t>Tai khoan</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>delete click more 2 click</t>
+  </si>
+  <si>
+    <t>update success add new recode in table view</t>
   </si>
 </sst>
 </file>
@@ -289,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -406,6 +428,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -413,7 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +465,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,25 +499,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -913,14 +945,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -958,7 +990,7 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -966,7 +998,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -974,7 +1006,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -982,7 +1014,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1014,7 +1046,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1061,7 @@
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1040,10 +1072,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1054,186 +1086,190 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="D6" s="14"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="2"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="2"/>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="2"/>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="2"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1246,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA98DD5-6C90-4020-9CC1-225599E07434}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,67 +1295,108 @@
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="18"/>
       <c r="F2" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="27" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="27" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="26" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="28" t="s">
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
       <c r="C11" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59331741-0705-4BD0-8B26-192271BB35B4}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
